--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-dificil.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1115">
   <si>
     <t>Pretrat</t>
   </si>
@@ -121,7 +121,7 @@
     <t>46.393 (173)</t>
   </si>
   <si>
-    <t>9.584 (173)</t>
+    <t>9.572 (173)</t>
   </si>
   <si>
     <t>9.503 (173)</t>
@@ -175,7 +175,7 @@
     <t>38.139 (115)</t>
   </si>
   <si>
-    <t>11.6 (115)</t>
+    <t>11.617 (115)</t>
   </si>
   <si>
     <t>11.878 (115)</t>
@@ -283,7 +283,7 @@
     <t>47.414 (140)</t>
   </si>
   <si>
-    <t>9.043 (140)</t>
+    <t>9.029 (140)</t>
   </si>
   <si>
     <t>9.114 (140)</t>
@@ -337,7 +337,7 @@
     <t>39.721 (136)</t>
   </si>
   <si>
-    <t>11.581 (136)</t>
+    <t>11.596 (136)</t>
   </si>
   <si>
     <t>11.625 (136)</t>
@@ -811,7 +811,7 @@
     <t>46.586 (140)</t>
   </si>
   <si>
-    <t>9.693 (140)</t>
+    <t>9.679 (140)</t>
   </si>
   <si>
     <t>9.543 (140)</t>
@@ -862,7 +862,7 @@
     <t>40.228 (136)</t>
   </si>
   <si>
-    <t>10.875 (136)</t>
+    <t>10.882 (136)</t>
   </si>
   <si>
     <t>11.14 (136)</t>
@@ -910,7 +910,7 @@
     <t>34.5 (22)</t>
   </si>
   <si>
-    <t>12.5 (22)</t>
+    <t>12.545 (22)</t>
   </si>
   <si>
     <t>13.636 (22)</t>
@@ -961,7 +961,7 @@
     <t>45.885 (104)</t>
   </si>
   <si>
-    <t>9.163 (104)</t>
+    <t>9.144 (104)</t>
   </si>
   <si>
     <t>9.346 (104)</t>
@@ -1015,7 +1015,7 @@
     <t>43.673 (150)</t>
   </si>
   <si>
-    <t>10.647 (150)</t>
+    <t>10.653 (150)</t>
   </si>
   <si>
     <t>10.547 (150)</t>
@@ -1066,7 +1066,7 @@
     <t>32.5 (42)</t>
   </si>
   <si>
-    <t>12.762 (42)</t>
+    <t>12.786 (42)</t>
   </si>
   <si>
     <t>13.738 (42)</t>
@@ -1222,7 +1222,7 @@
     <t>44.652 (161)</t>
   </si>
   <si>
-    <t>10.23 (161)</t>
+    <t>10.224 (161)</t>
   </si>
   <si>
     <t>10.292 (161)</t>
@@ -1276,7 +1276,7 @@
     <t>32.532 (62)</t>
   </si>
   <si>
-    <t>12.5 (62)</t>
+    <t>12.516 (62)</t>
   </si>
   <si>
     <t>13.274 (62)</t>
@@ -1438,7 +1438,7 @@
     <t>44.51 (151)</t>
   </si>
   <si>
-    <t>10.205 (151)</t>
+    <t>10.199 (151)</t>
   </si>
   <si>
     <t>10.099 (151)</t>
@@ -1492,7 +1492,7 @@
     <t>36.875 (88)</t>
   </si>
   <si>
-    <t>11.398 (88)</t>
+    <t>11.409 (88)</t>
   </si>
   <si>
     <t>12.42 (88)</t>
@@ -1600,7 +1600,7 @@
     <t>46.1 (110)</t>
   </si>
   <si>
-    <t>9.682 (110)</t>
+    <t>9.664 (110)</t>
   </si>
   <si>
     <t>9.773 (110)</t>
@@ -1654,9 +1654,6 @@
     <t>41.742 (151)</t>
   </si>
   <si>
-    <t>10.457 (151)</t>
-  </si>
-  <si>
     <t>10.464 (151)</t>
   </si>
   <si>
@@ -1708,7 +1705,7 @@
     <t>37.243 (37)</t>
   </si>
   <si>
-    <t>12.622 (37)</t>
+    <t>12.649 (37)</t>
   </si>
   <si>
     <t>13.405 (37)</t>
@@ -1762,7 +1759,7 @@
     <t>45.816 (76)</t>
   </si>
   <si>
-    <t>9.342 (76)</t>
+    <t>9.316 (76)</t>
   </si>
   <si>
     <t>9.592 (76)</t>
@@ -1813,7 +1810,7 @@
     <t>43.764 (148)</t>
   </si>
   <si>
-    <t>10.02 (148)</t>
+    <t>10.027 (148)</t>
   </si>
   <si>
     <t>9.912 (148)</t>
@@ -1867,7 +1864,7 @@
     <t>37.786 (70)</t>
   </si>
   <si>
-    <t>12.357 (70)</t>
+    <t>12.371 (70)</t>
   </si>
   <si>
     <t>12.957 (70)</t>
@@ -2029,7 +2026,7 @@
     <t>44.51 (143)</t>
   </si>
   <si>
-    <t>9.343 (143)</t>
+    <t>9.336 (143)</t>
   </si>
   <si>
     <t>9.329 (143)</t>
@@ -2083,7 +2080,7 @@
     <t>38.242 (95)</t>
   </si>
   <si>
-    <t>12.326 (95)</t>
+    <t>12.337 (95)</t>
   </si>
   <si>
     <t>12.6 (95)</t>
@@ -2242,7 +2239,7 @@
     <t>45.08 (125)</t>
   </si>
   <si>
-    <t>9.808 (125)</t>
+    <t>9.8 (125)</t>
   </si>
   <si>
     <t>9.4 (125)</t>
@@ -2293,7 +2290,7 @@
     <t>39.946 (111)</t>
   </si>
   <si>
-    <t>10.604 (111)</t>
+    <t>10.613 (111)</t>
   </si>
   <si>
     <t>11.351 (111)</t>
@@ -2452,7 +2449,7 @@
     <t>47.884 (86)</t>
   </si>
   <si>
-    <t>9.581 (86)</t>
+    <t>9.558 (86)</t>
   </si>
   <si>
     <t>9.395 (86)</t>
@@ -2506,7 +2503,7 @@
     <t>40.835 (158)</t>
   </si>
   <si>
-    <t>10.576 (158)</t>
+    <t>10.582 (158)</t>
   </si>
   <si>
     <t>10.658 (158)</t>
@@ -2611,7 +2608,7 @@
     <t>31.75 (4)</t>
   </si>
   <si>
-    <t>12.25 (4)</t>
+    <t>12.5 (4)</t>
   </si>
   <si>
     <t>15.5 (4)</t>
@@ -2662,7 +2659,7 @@
     <t>48.038 (52)</t>
   </si>
   <si>
-    <t>9.673 (52)</t>
+    <t>9.635 (52)</t>
   </si>
   <si>
     <t>9.365 (52)</t>
@@ -2716,7 +2713,7 @@
     <t>43.893 (149)</t>
   </si>
   <si>
-    <t>9.644 (149)</t>
+    <t>9.651 (149)</t>
   </si>
   <si>
     <t>9.691 (149)</t>
@@ -2824,7 +2821,7 @@
     <t>42.0 (17)</t>
   </si>
   <si>
-    <t>11.0 (17)</t>
+    <t>11.059 (17)</t>
   </si>
   <si>
     <t>11.824 (17)</t>
@@ -2932,7 +2929,7 @@
     <t>43.941 (118)</t>
   </si>
   <si>
-    <t>9.22 (118)</t>
+    <t>9.212 (118)</t>
   </si>
   <si>
     <t>9.246 (118)</t>
@@ -3037,7 +3034,7 @@
     <t>36.5 (30)</t>
   </si>
   <si>
-    <t>12.4 (30)</t>
+    <t>12.433 (30)</t>
   </si>
   <si>
     <t>13.033 (30)</t>
@@ -3187,7 +3184,7 @@
     <t>46.258 (93)</t>
   </si>
   <si>
-    <t>9.495 (93)</t>
+    <t>9.484 (93)</t>
   </si>
   <si>
     <t>8.806 (93)</t>
@@ -3292,7 +3289,7 @@
     <t>39.226 (62)</t>
   </si>
   <si>
-    <t>12.387 (62)</t>
+    <t>12.403 (62)</t>
   </si>
   <si>
     <t>12.581 (62)</t>
@@ -3803,10 +3800,10 @@
         <v>1.994</v>
       </c>
       <c r="H2">
-        <v>0.577</v>
+        <v>0.592</v>
       </c>
       <c r="I2">
-        <v>0.5639999999999999</v>
+        <v>0.554</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3832,10 +3829,10 @@
         <v>-4.516</v>
       </c>
       <c r="H3">
-        <v>-1.206</v>
+        <v>-1.123</v>
       </c>
       <c r="I3">
-        <v>0.229</v>
+        <v>0.261</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3861,10 +3858,10 @@
         <v>2.236</v>
       </c>
       <c r="H4">
+        <v>0.581</v>
+      </c>
+      <c r="I4">
         <v>0.5610000000000001</v>
-      </c>
-      <c r="I4">
-        <v>0.575</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3890,10 +3887,10 @@
         <v>0.258</v>
       </c>
       <c r="H5">
-        <v>0.057</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.954</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3919,10 +3916,10 @@
         <v>-1.435</v>
       </c>
       <c r="H6">
-        <v>-0.322</v>
+        <v>-0.276</v>
       </c>
       <c r="I6">
-        <v>0.747</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3948,10 +3945,10 @@
         <v>-9.553000000000001</v>
       </c>
       <c r="H7">
-        <v>-2.242</v>
+        <v>-2.21</v>
       </c>
       <c r="I7">
-        <v>0.026</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3974,13 +3971,13 @@
         <v>0.035</v>
       </c>
       <c r="G8">
-        <v>-0.493</v>
+        <v>-0.428</v>
       </c>
       <c r="H8">
-        <v>-0.382</v>
+        <v>-0.356</v>
       </c>
       <c r="I8">
-        <v>0.703</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -4006,10 +4003,10 @@
         <v>2.588</v>
       </c>
       <c r="H9">
-        <v>1.792</v>
+        <v>1.705</v>
       </c>
       <c r="I9">
-        <v>0.074</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -4035,10 +4032,10 @@
         <v>-0.717</v>
       </c>
       <c r="H10">
-        <v>-0.428</v>
+        <v>-0.436</v>
       </c>
       <c r="I10">
-        <v>0.669</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -4064,10 +4061,10 @@
         <v>0.067</v>
       </c>
       <c r="H11">
-        <v>0.04</v>
+        <v>0.037</v>
       </c>
       <c r="I11">
-        <v>0.968</v>
+        <v>0.971</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -4093,10 +4090,10 @@
         <v>-0.288</v>
       </c>
       <c r="H12">
-        <v>-0.176</v>
+        <v>-0.132</v>
       </c>
       <c r="I12">
-        <v>0.861</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -4122,10 +4119,10 @@
         <v>4.355</v>
       </c>
       <c r="H13">
-        <v>2.712</v>
+        <v>2.732</v>
       </c>
       <c r="I13">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -4151,10 +4148,10 @@
         <v>-0.019</v>
       </c>
       <c r="H14">
-        <v>-0.58</v>
+        <v>-0.628</v>
       </c>
       <c r="I14">
-        <v>0.5620000000000001</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4180,10 +4177,10 @@
         <v>-0.036</v>
       </c>
       <c r="H15">
-        <v>-1.122</v>
+        <v>-1.356</v>
       </c>
       <c r="I15">
-        <v>0.263</v>
+        <v>0.175</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4209,10 +4206,10 @@
         <v>-0.019</v>
       </c>
       <c r="H16">
-        <v>-0.626</v>
+        <v>-0.862</v>
       </c>
       <c r="I16">
-        <v>0.532</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4238,10 +4235,10 @@
         <v>0.006</v>
       </c>
       <c r="H17">
-        <v>0.181</v>
+        <v>0.215</v>
       </c>
       <c r="I17">
-        <v>0.856</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4267,10 +4264,10 @@
         <v>-0.014</v>
       </c>
       <c r="H18">
-        <v>-0.442</v>
+        <v>-0.618</v>
       </c>
       <c r="I18">
-        <v>0.659</v>
+        <v>0.537</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4296,10 +4293,10 @@
         <v>-0.045</v>
       </c>
       <c r="H19">
-        <v>-1.389</v>
+        <v>-1.716</v>
       </c>
       <c r="I19">
-        <v>0.166</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -4364,16 +4361,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F2">
         <v>298</v>
@@ -4385,7 +4382,7 @@
         <v>-0.851</v>
       </c>
       <c r="I2">
-        <v>-0.245</v>
+        <v>-0.244</v>
       </c>
       <c r="J2">
         <v>0.8070000000000001</v>
@@ -4396,16 +4393,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E3" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F3">
         <v>298</v>
@@ -4417,10 +4414,10 @@
         <v>-3.771</v>
       </c>
       <c r="I3">
-        <v>-1.001</v>
+        <v>-1.066</v>
       </c>
       <c r="J3">
-        <v>0.318</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4428,16 +4425,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F4">
         <v>298</v>
@@ -4449,10 +4446,10 @@
         <v>-1.106</v>
       </c>
       <c r="I4">
-        <v>-0.276</v>
+        <v>-0.3</v>
       </c>
       <c r="J4">
-        <v>0.783</v>
+        <v>0.764</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4460,16 +4457,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F5">
         <v>298</v>
@@ -4481,10 +4478,10 @@
         <v>1.734</v>
       </c>
       <c r="I5">
-        <v>0.383</v>
+        <v>0.361</v>
       </c>
       <c r="J5">
-        <v>0.702</v>
+        <v>0.718</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4492,16 +4489,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F6">
         <v>298</v>
@@ -4513,10 +4510,10 @@
         <v>-0.102</v>
       </c>
       <c r="I6">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="J6">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4524,16 +4521,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F7">
         <v>298</v>
@@ -4545,10 +4542,10 @@
         <v>-2.38</v>
       </c>
       <c r="I7">
-        <v>-0.551</v>
+        <v>-0.638</v>
       </c>
       <c r="J7">
-        <v>0.582</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4556,16 +4553,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F8">
         <v>298</v>
@@ -4574,13 +4571,13 @@
         <v>0.034</v>
       </c>
       <c r="H8">
-        <v>0.642</v>
+        <v>0.714</v>
       </c>
       <c r="I8">
-        <v>0.496</v>
+        <v>0.595</v>
       </c>
       <c r="J8">
-        <v>0.621</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4588,16 +4585,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E9" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F9">
         <v>298</v>
@@ -4609,10 +4606,10 @@
         <v>1.986</v>
       </c>
       <c r="I9">
-        <v>1.365</v>
+        <v>1.26</v>
       </c>
       <c r="J9">
-        <v>0.174</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4620,16 +4617,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C10" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D10" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E10" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F10">
         <v>298</v>
@@ -4641,10 +4638,10 @@
         <v>0.519</v>
       </c>
       <c r="I10">
-        <v>0.308</v>
+        <v>0.276</v>
       </c>
       <c r="J10">
-        <v>0.758</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4652,16 +4649,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D11" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E11" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F11">
         <v>298</v>
@@ -4673,10 +4670,10 @@
         <v>-0.4</v>
       </c>
       <c r="I11">
-        <v>-0.236</v>
+        <v>-0.193</v>
       </c>
       <c r="J11">
-        <v>0.8129999999999999</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4684,16 +4681,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F12">
         <v>298</v>
@@ -4705,10 +4702,10 @@
         <v>-0.547</v>
       </c>
       <c r="I12">
-        <v>-0.332</v>
+        <v>-0.297</v>
       </c>
       <c r="J12">
-        <v>0.74</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4716,16 +4713,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D13" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E13" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F13">
         <v>298</v>
@@ -4737,10 +4734,10 @@
         <v>1.569</v>
       </c>
       <c r="I13">
-        <v>0.96</v>
+        <v>1.085</v>
       </c>
       <c r="J13">
-        <v>0.338</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4748,16 +4745,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C14" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F14">
         <v>298</v>
@@ -4769,10 +4766,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.303</v>
+        <v>-0.305</v>
       </c>
       <c r="J14">
-        <v>0.762</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4780,16 +4777,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="D15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F15">
         <v>298</v>
@@ -4801,10 +4798,10 @@
         <v>-0.029</v>
       </c>
       <c r="I15">
-        <v>-0.887</v>
+        <v>-1.268</v>
       </c>
       <c r="J15">
-        <v>0.376</v>
+        <v>0.205</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -4812,16 +4809,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="D16" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E16" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F16">
         <v>298</v>
@@ -4833,10 +4830,10 @@
         <v>-0.042</v>
       </c>
       <c r="I16">
-        <v>-1.36</v>
+        <v>-1.465</v>
       </c>
       <c r="J16">
-        <v>0.175</v>
+        <v>0.143</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4844,16 +4841,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D17" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -4865,10 +4862,10 @@
         <v>-0.012</v>
       </c>
       <c r="I17">
-        <v>-0.369</v>
+        <v>-0.398</v>
       </c>
       <c r="J17">
-        <v>0.713</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4876,16 +4873,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C18" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D18" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E18" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F18">
         <v>298</v>
@@ -4897,10 +4894,10 @@
         <v>-0.043</v>
       </c>
       <c r="I18">
-        <v>-1.324</v>
+        <v>-1.746</v>
       </c>
       <c r="J18">
-        <v>0.187</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4908,16 +4905,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D19" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E19" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F19">
         <v>298</v>
@@ -4929,10 +4926,10 @@
         <v>-0.036</v>
       </c>
       <c r="I19">
-        <v>-1.091</v>
+        <v>-1.165</v>
       </c>
       <c r="J19">
-        <v>0.276</v>
+        <v>0.244</v>
       </c>
     </row>
   </sheetData>
@@ -4997,16 +4994,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E2" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="F2">
         <v>298</v>
@@ -5018,10 +5015,10 @@
         <v>1.124</v>
       </c>
       <c r="I2">
-        <v>0.265</v>
+        <v>0.274</v>
       </c>
       <c r="J2">
-        <v>0.791</v>
+        <v>0.784</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -5029,16 +5026,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E3" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F3">
         <v>298</v>
@@ -5050,10 +5047,10 @@
         <v>-3.471</v>
       </c>
       <c r="I3">
-        <v>-0.754</v>
+        <v>-0.891</v>
       </c>
       <c r="J3">
-        <v>0.451</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -5061,16 +5058,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F4">
         <v>298</v>
@@ -5082,10 +5079,10 @@
         <v>1.171</v>
       </c>
       <c r="I4">
-        <v>0.24</v>
+        <v>0.269</v>
       </c>
       <c r="J4">
-        <v>0.8110000000000001</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -5093,16 +5090,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E5" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F5">
         <v>298</v>
@@ -5114,10 +5111,10 @@
         <v>0.207</v>
       </c>
       <c r="I5">
-        <v>0.037</v>
+        <v>0.034</v>
       </c>
       <c r="J5">
-        <v>0.97</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -5125,16 +5122,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C6" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E6" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F6">
         <v>298</v>
@@ -5146,10 +5143,10 @@
         <v>-2.189</v>
       </c>
       <c r="I6">
-        <v>-0.401</v>
+        <v>-0.395</v>
       </c>
       <c r="J6">
-        <v>0.6889999999999999</v>
+        <v>0.6929999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -5157,16 +5154,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C7" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D7" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="F7">
         <v>298</v>
@@ -5178,10 +5175,10 @@
         <v>-3.579</v>
       </c>
       <c r="I7">
-        <v>-0.678</v>
+        <v>-0.729</v>
       </c>
       <c r="J7">
-        <v>0.498</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -5189,16 +5186,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E8" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F8">
         <v>298</v>
@@ -5207,13 +5204,13 @@
         <v>0.024</v>
       </c>
       <c r="H8">
-        <v>-0.05</v>
+        <v>-0.039</v>
       </c>
       <c r="I8">
-        <v>-0.031</v>
+        <v>-0.023</v>
       </c>
       <c r="J8">
-        <v>0.975</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -5221,16 +5218,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C9" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D9" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E9" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="F9">
         <v>298</v>
@@ -5242,10 +5239,10 @@
         <v>2.225</v>
       </c>
       <c r="I9">
-        <v>1.252</v>
+        <v>1.19</v>
       </c>
       <c r="J9">
-        <v>0.212</v>
+        <v>0.234</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -5253,16 +5250,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C10" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D10" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E10" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F10">
         <v>298</v>
@@ -5274,10 +5271,10 @@
         <v>-0.759</v>
       </c>
       <c r="I10">
-        <v>-0.369</v>
+        <v>-0.335</v>
       </c>
       <c r="J10">
-        <v>0.713</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -5285,16 +5282,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C11" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E11" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="F11">
         <v>298</v>
@@ -5317,16 +5314,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E12" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="F12">
         <v>298</v>
@@ -5338,10 +5335,10 @@
         <v>0.142</v>
       </c>
       <c r="I12">
-        <v>0.07099999999999999</v>
+        <v>0.065</v>
       </c>
       <c r="J12">
-        <v>0.944</v>
+        <v>0.948</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -5349,16 +5346,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C13" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="E13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="F13">
         <v>298</v>
@@ -5370,10 +5367,10 @@
         <v>2.345</v>
       </c>
       <c r="I13">
-        <v>1.176</v>
+        <v>1.259</v>
       </c>
       <c r="J13">
-        <v>0.241</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -5381,16 +5378,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="F14">
         <v>298</v>
@@ -5402,10 +5399,10 @@
         <v>-0.005</v>
       </c>
       <c r="I14">
-        <v>-0.117</v>
+        <v>-0.12</v>
       </c>
       <c r="J14">
-        <v>0.907</v>
+        <v>0.905</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -5413,16 +5410,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C15" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E15" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F15">
         <v>298</v>
@@ -5434,10 +5431,10 @@
         <v>-0.053</v>
       </c>
       <c r="I15">
-        <v>-1.353</v>
+        <v>-1.66</v>
       </c>
       <c r="J15">
-        <v>0.177</v>
+        <v>0.097</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -5445,16 +5442,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C16" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="F16">
         <v>298</v>
@@ -5466,10 +5463,10 @@
         <v>-0.062</v>
       </c>
       <c r="I16">
-        <v>-1.65</v>
+        <v>-1.73</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.08400000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -5477,16 +5474,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C17" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E17" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -5498,10 +5495,10 @@
         <v>0.004</v>
       </c>
       <c r="I17">
-        <v>0.099</v>
+        <v>0.111</v>
       </c>
       <c r="J17">
-        <v>0.921</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -5509,16 +5506,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E18" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="F18">
         <v>298</v>
@@ -5530,10 +5527,10 @@
         <v>-0.052</v>
       </c>
       <c r="I18">
-        <v>-1.303</v>
+        <v>-1.706</v>
       </c>
       <c r="J18">
-        <v>0.194</v>
+        <v>0.08799999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -5541,16 +5538,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C19" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E19" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="F19">
         <v>298</v>
@@ -5562,10 +5559,10 @@
         <v>-0.006</v>
       </c>
       <c r="I19">
-        <v>-0.161</v>
+        <v>-0.158</v>
       </c>
       <c r="J19">
-        <v>0.872</v>
+        <v>0.874</v>
       </c>
     </row>
   </sheetData>
@@ -5634,19 +5631,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G2">
         <v>298</v>
@@ -5658,10 +5655,10 @@
         <v>3.51</v>
       </c>
       <c r="J2">
-        <v>0.742</v>
+        <v>0.847</v>
       </c>
       <c r="K2">
-        <v>0.459</v>
+        <v>0.397</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5669,19 +5666,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C3" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G3">
         <v>298</v>
@@ -5693,10 +5690,10 @@
         <v>-8.119999999999999</v>
       </c>
       <c r="J3">
-        <v>-1.586</v>
+        <v>-1.767</v>
       </c>
       <c r="K3">
-        <v>0.114</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5704,19 +5701,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G4">
         <v>298</v>
@@ -5728,10 +5725,10 @@
         <v>-1.052</v>
       </c>
       <c r="J4">
-        <v>-0.193</v>
+        <v>-0.216</v>
       </c>
       <c r="K4">
-        <v>0.847</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5739,19 +5736,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C5" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D5" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="E5" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G5">
         <v>298</v>
@@ -5763,10 +5760,10 @@
         <v>1.017</v>
       </c>
       <c r="J5">
-        <v>0.165</v>
+        <v>0.158</v>
       </c>
       <c r="K5">
-        <v>0.869</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5774,19 +5771,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C6" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E6" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G6">
         <v>298</v>
@@ -5798,10 +5795,10 @@
         <v>-2.966</v>
       </c>
       <c r="J6">
-        <v>-0.487</v>
+        <v>-0.478</v>
       </c>
       <c r="K6">
-        <v>0.627</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5809,19 +5806,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C7" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D7" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="E7" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G7">
         <v>298</v>
@@ -5833,10 +5830,10 @@
         <v>-1.274</v>
       </c>
       <c r="J7">
-        <v>-0.216</v>
+        <v>-0.21</v>
       </c>
       <c r="K7">
-        <v>0.829</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5844,19 +5841,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D8" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E8" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G8">
         <v>298</v>
@@ -5865,13 +5862,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>-1.506</v>
+        <v>-1.492</v>
       </c>
       <c r="J8">
-        <v>-0.853</v>
+        <v>-0.893</v>
       </c>
       <c r="K8">
-        <v>0.394</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5879,19 +5876,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G9">
         <v>298</v>
@@ -5903,10 +5900,10 @@
         <v>4.214</v>
       </c>
       <c r="J9">
-        <v>2.136</v>
+        <v>1.984</v>
       </c>
       <c r="K9">
-        <v>0.034</v>
+        <v>0.047</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5914,19 +5911,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D10" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E10" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G10">
         <v>298</v>
@@ -5938,10 +5935,10 @@
         <v>0.183</v>
       </c>
       <c r="J10">
-        <v>0.079</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="K10">
-        <v>0.9370000000000001</v>
+        <v>0.944</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5949,19 +5946,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D11" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="E11" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G11">
         <v>298</v>
@@ -5973,10 +5970,10 @@
         <v>-1.425</v>
       </c>
       <c r="J11">
-        <v>-0.618</v>
+        <v>-0.579</v>
       </c>
       <c r="K11">
-        <v>0.537</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5984,19 +5981,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C12" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D12" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="E12" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="F12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G12">
         <v>298</v>
@@ -6008,10 +6005,10 @@
         <v>-0.233</v>
       </c>
       <c r="J12">
-        <v>-0.104</v>
+        <v>-0.112</v>
       </c>
       <c r="K12">
-        <v>0.918</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -6019,19 +6016,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D13" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E13" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="F13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G13">
         <v>298</v>
@@ -6043,10 +6040,10 @@
         <v>1.728</v>
       </c>
       <c r="J13">
-        <v>0.775</v>
+        <v>0.706</v>
       </c>
       <c r="K13">
-        <v>0.439</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -6054,19 +6051,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="E14" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G14">
         <v>298</v>
@@ -6078,10 +6075,10 @@
         <v>0.002</v>
       </c>
       <c r="J14">
-        <v>0.048</v>
+        <v>0.045</v>
       </c>
       <c r="K14">
-        <v>0.962</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6089,19 +6086,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C15" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D15" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="E15" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G15">
         <v>298</v>
@@ -6113,10 +6110,10 @@
         <v>-0.067</v>
       </c>
       <c r="J15">
-        <v>-1.518</v>
+        <v>-1.872</v>
       </c>
       <c r="K15">
-        <v>0.13</v>
+        <v>0.061</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6124,19 +6121,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D16" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E16" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G16">
         <v>298</v>
@@ -6148,10 +6145,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="J16">
-        <v>-1.663</v>
+        <v>-1.693</v>
       </c>
       <c r="K16">
-        <v>0.098</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6159,19 +6156,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D17" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E17" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G17">
         <v>298</v>
@@ -6183,10 +6180,10 @@
         <v>-0.003</v>
       </c>
       <c r="J17">
-        <v>-0.064</v>
+        <v>-0.076</v>
       </c>
       <c r="K17">
-        <v>0.949</v>
+        <v>0.9389999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6194,19 +6191,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C18" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D18" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="E18" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="F18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G18">
         <v>298</v>
@@ -6218,10 +6215,10 @@
         <v>-0.019</v>
       </c>
       <c r="J18">
-        <v>-0.417</v>
+        <v>-0.721</v>
       </c>
       <c r="K18">
-        <v>0.677</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6229,19 +6226,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C19" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D19" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E19" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="F19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G19">
         <v>298</v>
@@ -6253,10 +6250,10 @@
         <v>0.008</v>
       </c>
       <c r="J19">
-        <v>0.181</v>
+        <v>0.199</v>
       </c>
       <c r="K19">
-        <v>0.856</v>
+        <v>0.842</v>
       </c>
     </row>
   </sheetData>
@@ -6321,16 +6318,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F2">
         <v>298</v>
@@ -6342,10 +6339,10 @@
         <v>2.94</v>
       </c>
       <c r="I2">
-        <v>1.09</v>
+        <v>1.131</v>
       </c>
       <c r="J2">
-        <v>0.277</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6353,16 +6350,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C3" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D3" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E3" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F3">
         <v>298</v>
@@ -6374,10 +6371,10 @@
         <v>-1.373</v>
       </c>
       <c r="I3">
-        <v>-0.467</v>
+        <v>-0.483</v>
       </c>
       <c r="J3">
-        <v>0.641</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6385,16 +6382,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F4">
         <v>298</v>
@@ -6406,10 +6403,10 @@
         <v>-0.449</v>
       </c>
       <c r="I4">
-        <v>-0.144</v>
+        <v>-0.133</v>
       </c>
       <c r="J4">
-        <v>0.885</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6417,16 +6414,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C5" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D5" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E5" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F5">
         <v>298</v>
@@ -6438,10 +6435,10 @@
         <v>2.276</v>
       </c>
       <c r="I5">
-        <v>0.646</v>
+        <v>0.556</v>
       </c>
       <c r="J5">
-        <v>0.519</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6449,16 +6446,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C6" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D6" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E6" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F6">
         <v>298</v>
@@ -6470,10 +6467,10 @@
         <v>-1.41</v>
       </c>
       <c r="I6">
-        <v>-0.405</v>
+        <v>-0.38</v>
       </c>
       <c r="J6">
-        <v>0.6860000000000001</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6481,16 +6478,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C7" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D7" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E7" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F7">
         <v>298</v>
@@ -6502,10 +6499,10 @@
         <v>-4.103</v>
       </c>
       <c r="I7">
-        <v>-1.223</v>
+        <v>-1.22</v>
       </c>
       <c r="J7">
-        <v>0.223</v>
+        <v>0.222</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6513,16 +6510,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D8" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F8">
         <v>298</v>
@@ -6531,13 +6528,13 @@
         <v>0.056</v>
       </c>
       <c r="H8">
-        <v>-0.837</v>
+        <v>-0.765</v>
       </c>
       <c r="I8">
-        <v>-0.831</v>
+        <v>-0.8080000000000001</v>
       </c>
       <c r="J8">
-        <v>0.407</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -6545,16 +6542,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C9" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F9">
         <v>298</v>
@@ -6566,10 +6563,10 @@
         <v>1.344</v>
       </c>
       <c r="I9">
-        <v>1.186</v>
+        <v>1.143</v>
       </c>
       <c r="J9">
-        <v>0.237</v>
+        <v>0.253</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -6577,16 +6574,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C10" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D10" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E10" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F10">
         <v>298</v>
@@ -6598,10 +6595,10 @@
         <v>0.341</v>
       </c>
       <c r="I10">
-        <v>0.26</v>
+        <v>0.212</v>
       </c>
       <c r="J10">
-        <v>0.795</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -6609,16 +6606,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="E11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F11">
         <v>298</v>
@@ -6630,10 +6627,10 @@
         <v>-0.83</v>
       </c>
       <c r="I11">
-        <v>-0.631</v>
+        <v>-0.506</v>
       </c>
       <c r="J11">
-        <v>0.529</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -6641,16 +6638,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C12" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D12" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="E12" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="F12">
         <v>298</v>
@@ -6662,10 +6659,10 @@
         <v>0.172</v>
       </c>
       <c r="I12">
-        <v>0.134</v>
+        <v>0.125</v>
       </c>
       <c r="J12">
-        <v>0.894</v>
+        <v>0.901</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -6673,16 +6670,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E13" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F13">
         <v>298</v>
@@ -6694,10 +6691,10 @@
         <v>2.064</v>
       </c>
       <c r="I13">
-        <v>1.628</v>
+        <v>1.453</v>
       </c>
       <c r="J13">
-        <v>0.105</v>
+        <v>0.146</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -6705,16 +6702,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C14" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="D14" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E14" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="F14">
         <v>298</v>
@@ -6726,10 +6723,10 @@
         <v>0.014</v>
       </c>
       <c r="I14">
-        <v>0.5610000000000001</v>
+        <v>0.404</v>
       </c>
       <c r="J14">
-        <v>0.575</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -6737,16 +6734,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C15" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D15" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E15" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="F15">
         <v>298</v>
@@ -6758,10 +6755,10 @@
         <v>-0.015</v>
       </c>
       <c r="I15">
-        <v>-0.6</v>
+        <v>-0.44</v>
       </c>
       <c r="J15">
-        <v>0.549</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -6769,16 +6766,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="D16" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E16" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="F16">
         <v>298</v>
@@ -6790,10 +6787,10 @@
         <v>-0.022</v>
       </c>
       <c r="I16">
-        <v>-0.917</v>
+        <v>-0.576</v>
       </c>
       <c r="J16">
-        <v>0.36</v>
+        <v>0.5649999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -6801,16 +6798,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="D17" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E17" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -6822,10 +6819,10 @@
         <v>-0.003</v>
       </c>
       <c r="I17">
-        <v>-0.12</v>
+        <v>-0.107</v>
       </c>
       <c r="J17">
-        <v>0.905</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -6833,16 +6830,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C18" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="D18" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E18" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="F18">
         <v>298</v>
@@ -6854,10 +6851,10 @@
         <v>-0.015</v>
       </c>
       <c r="I18">
-        <v>-0.59</v>
+        <v>-0.703</v>
       </c>
       <c r="J18">
-        <v>0.556</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -6865,16 +6862,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C19" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="D19" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E19" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="F19">
         <v>298</v>
@@ -6886,10 +6883,10 @@
         <v>-0.027</v>
       </c>
       <c r="I19">
-        <v>-1.055</v>
+        <v>-1.281</v>
       </c>
       <c r="J19">
-        <v>0.292</v>
+        <v>0.2</v>
       </c>
     </row>
   </sheetData>
@@ -6954,16 +6951,16 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="D2" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E2" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="F2">
         <v>298</v>
@@ -6975,10 +6972,10 @@
         <v>2.972</v>
       </c>
       <c r="I2">
-        <v>0.917</v>
+        <v>0.951</v>
       </c>
       <c r="J2">
-        <v>0.36</v>
+        <v>0.342</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6986,16 +6983,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D3" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E3" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="F3">
         <v>298</v>
@@ -7007,10 +7004,10 @@
         <v>-3.12</v>
       </c>
       <c r="I3">
-        <v>-0.886</v>
+        <v>-1.005</v>
       </c>
       <c r="J3">
-        <v>0.377</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -7018,16 +7015,16 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="C4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="F4">
         <v>298</v>
@@ -7039,10 +7036,10 @@
         <v>-0.6830000000000001</v>
       </c>
       <c r="I4">
-        <v>-0.182</v>
+        <v>-0.209</v>
       </c>
       <c r="J4">
-        <v>0.855</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -7050,16 +7047,16 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C5" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D5" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E5" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="F5">
         <v>298</v>
@@ -7071,10 +7068,10 @@
         <v>4.401</v>
       </c>
       <c r="I5">
-        <v>1.042</v>
+        <v>1.023</v>
       </c>
       <c r="J5">
-        <v>0.298</v>
+        <v>0.306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -7082,16 +7079,16 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C6" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="D6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E6" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="F6">
         <v>298</v>
@@ -7103,10 +7100,10 @@
         <v>1.108</v>
       </c>
       <c r="I6">
-        <v>0.265</v>
+        <v>0.289</v>
       </c>
       <c r="J6">
-        <v>0.791</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -7114,16 +7111,16 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="C7" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D7" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E7" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="F7">
         <v>298</v>
@@ -7135,10 +7132,10 @@
         <v>-1.61</v>
       </c>
       <c r="I7">
-        <v>-0.398</v>
+        <v>-0.468</v>
       </c>
       <c r="J7">
-        <v>0.6909999999999999</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -7146,16 +7143,16 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="C8" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="D8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="F8">
         <v>298</v>
@@ -7164,13 +7161,13 @@
         <v>0.039</v>
       </c>
       <c r="H8">
-        <v>-0.859</v>
+        <v>-0.788</v>
       </c>
       <c r="I8">
-        <v>-0.71</v>
+        <v>-0.703</v>
       </c>
       <c r="J8">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7178,16 +7175,16 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="C9" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D9" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E9" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="F9">
         <v>298</v>
@@ -7199,10 +7196,10 @@
         <v>1.752</v>
       </c>
       <c r="I9">
-        <v>1.288</v>
+        <v>1.336</v>
       </c>
       <c r="J9">
-        <v>0.199</v>
+        <v>0.181</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7210,16 +7207,16 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C10" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="D10" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E10" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="F10">
         <v>298</v>
@@ -7231,10 +7228,10 @@
         <v>0.265</v>
       </c>
       <c r="I10">
-        <v>0.168</v>
+        <v>0.159</v>
       </c>
       <c r="J10">
-        <v>0.866</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7242,16 +7239,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C11" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D11" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="F11">
         <v>298</v>
@@ -7263,10 +7260,10 @@
         <v>-1.487</v>
       </c>
       <c r="I11">
-        <v>-0.9419999999999999</v>
+        <v>-0.858</v>
       </c>
       <c r="J11">
-        <v>0.347</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7274,16 +7271,16 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="C12" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="D12" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E12" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="F12">
         <v>298</v>
@@ -7295,10 +7292,10 @@
         <v>-1.15</v>
       </c>
       <c r="I12">
-        <v>-0.748</v>
+        <v>-0.842</v>
       </c>
       <c r="J12">
-        <v>0.455</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7306,16 +7303,16 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="C13" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D13" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E13" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="F13">
         <v>298</v>
@@ -7327,10 +7324,10 @@
         <v>0.99</v>
       </c>
       <c r="I13">
-        <v>0.647</v>
+        <v>0.717</v>
       </c>
       <c r="J13">
-        <v>0.518</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7338,16 +7335,16 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C14" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="D14" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="E14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="F14">
         <v>298</v>
@@ -7359,10 +7356,10 @@
         <v>0.003</v>
       </c>
       <c r="I14">
-        <v>0.08500000000000001</v>
+        <v>0.066</v>
       </c>
       <c r="J14">
-        <v>0.9330000000000001</v>
+        <v>0.947</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7370,16 +7367,16 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C15" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D15" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E15" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="F15">
         <v>298</v>
@@ -7391,10 +7388,10 @@
         <v>-0.017</v>
       </c>
       <c r="I15">
-        <v>-0.553</v>
+        <v>-0.5649999999999999</v>
       </c>
       <c r="J15">
-        <v>0.581</v>
+        <v>0.572</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7402,16 +7399,16 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C16" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="D16" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="E16" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="F16">
         <v>298</v>
@@ -7423,10 +7420,10 @@
         <v>-0.044</v>
       </c>
       <c r="I16">
-        <v>-1.512</v>
+        <v>-1.129</v>
       </c>
       <c r="J16">
-        <v>0.132</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7434,16 +7431,16 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C17" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D17" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="E17" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="F17">
         <v>298</v>
@@ -7455,10 +7452,10 @@
         <v>-0.017</v>
       </c>
       <c r="I17">
-        <v>-0.551</v>
+        <v>-0.598</v>
       </c>
       <c r="J17">
-        <v>0.582</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7466,16 +7463,16 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C18" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="D18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E18" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="F18">
         <v>298</v>
@@ -7487,10 +7484,10 @@
         <v>-0.018</v>
       </c>
       <c r="I18">
-        <v>-0.584</v>
+        <v>-0.896</v>
       </c>
       <c r="J18">
-        <v>0.5600000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7498,16 +7495,16 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C19" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D19" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="E19" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="F19">
         <v>298</v>
@@ -7519,10 +7516,10 @@
         <v>-0.017</v>
       </c>
       <c r="I19">
-        <v>-0.5600000000000001</v>
+        <v>-0.6929999999999999</v>
       </c>
       <c r="J19">
-        <v>0.576</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
@@ -7591,19 +7588,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C2" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D2" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="E2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F2" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="G2">
         <v>298</v>
@@ -7615,10 +7612,10 @@
         <v>2.696</v>
       </c>
       <c r="J2">
-        <v>0.719</v>
+        <v>0.834</v>
       </c>
       <c r="K2">
-        <v>0.473</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7626,19 +7623,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C3" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D3" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="E3" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="F3" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="G3">
         <v>298</v>
@@ -7650,10 +7647,10 @@
         <v>-2.936</v>
       </c>
       <c r="J3">
-        <v>-0.72</v>
+        <v>-0.78</v>
       </c>
       <c r="K3">
-        <v>0.472</v>
+        <v>0.435</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7661,19 +7658,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="E4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="G4">
         <v>298</v>
@@ -7685,10 +7682,10 @@
         <v>0.159</v>
       </c>
       <c r="J4">
-        <v>0.037</v>
+        <v>0.032</v>
       </c>
       <c r="K4">
-        <v>0.971</v>
+        <v>0.974</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7696,19 +7693,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C5" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D5" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="E5" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="F5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G5">
         <v>298</v>
@@ -7720,10 +7717,10 @@
         <v>3.137</v>
       </c>
       <c r="J5">
-        <v>0.642</v>
+        <v>0.541</v>
       </c>
       <c r="K5">
-        <v>0.522</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7731,19 +7728,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C6" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D6" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="E6" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="F6" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="G6">
         <v>298</v>
@@ -7755,10 +7752,10 @@
         <v>1.336</v>
       </c>
       <c r="J6">
-        <v>0.276</v>
+        <v>0.303</v>
       </c>
       <c r="K6">
-        <v>0.782</v>
+        <v>0.762</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7766,19 +7763,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C7" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D7" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="E7" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="F7" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="G7">
         <v>298</v>
@@ -7790,10 +7787,10 @@
         <v>0.438</v>
       </c>
       <c r="J7">
-        <v>0.094</v>
+        <v>0.109</v>
       </c>
       <c r="K7">
-        <v>0.926</v>
+        <v>0.913</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7801,19 +7798,19 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C8" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D8" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="E8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="F8" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G8">
         <v>298</v>
@@ -7822,13 +7819,13 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>-0.508</v>
+        <v>-0.492</v>
       </c>
       <c r="J8">
-        <v>-0.363</v>
+        <v>-0.38</v>
       </c>
       <c r="K8">
-        <v>0.717</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -7836,19 +7833,19 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D9" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="E9" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="F9" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="G9">
         <v>298</v>
@@ -7860,10 +7857,10 @@
         <v>1.99</v>
       </c>
       <c r="J9">
-        <v>1.265</v>
+        <v>1.133</v>
       </c>
       <c r="K9">
-        <v>0.207</v>
+        <v>0.257</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7871,19 +7868,19 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C10" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D10" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="E10" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="F10" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="G10">
         <v>298</v>
@@ -7895,10 +7892,10 @@
         <v>-0.465</v>
       </c>
       <c r="J10">
-        <v>-0.255</v>
+        <v>-0.208</v>
       </c>
       <c r="K10">
-        <v>0.799</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7906,19 +7903,19 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C11" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="E11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="F11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="G11">
         <v>298</v>
@@ -7930,10 +7927,10 @@
         <v>-1.336</v>
       </c>
       <c r="J11">
-        <v>-0.731</v>
+        <v>-0.605</v>
       </c>
       <c r="K11">
-        <v>0.466</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7941,19 +7938,19 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C12" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D12" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E12" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="F12" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="G12">
         <v>298</v>
@@ -7965,10 +7962,10 @@
         <v>-1.141</v>
       </c>
       <c r="J12">
-        <v>-0.641</v>
+        <v>-0.736</v>
       </c>
       <c r="K12">
-        <v>0.522</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7976,19 +7973,19 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="C13" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="D13" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="E13" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="F13" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="G13">
         <v>298</v>
@@ -8000,10 +7997,10 @@
         <v>0.485</v>
       </c>
       <c r="J13">
-        <v>0.274</v>
+        <v>0.311</v>
       </c>
       <c r="K13">
-        <v>0.784</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -8011,19 +8008,19 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="C14" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="D14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E14" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="F14" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="G14">
         <v>298</v>
@@ -8035,10 +8032,10 @@
         <v>-0.011</v>
       </c>
       <c r="J14">
-        <v>-0.308</v>
+        <v>-0.292</v>
       </c>
       <c r="K14">
-        <v>0.758</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -8046,19 +8043,19 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C15" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="D15" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="E15" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="F15" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="G15">
         <v>298</v>
@@ -8070,10 +8067,10 @@
         <v>-0.061</v>
       </c>
       <c r="J15">
-        <v>-1.747</v>
+        <v>-2.079</v>
       </c>
       <c r="K15">
-        <v>0.082</v>
+        <v>0.038</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -8081,19 +8078,19 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="C16" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="D16" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="E16" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="F16" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="G16">
         <v>298</v>
@@ -8105,10 +8102,10 @@
         <v>-0.08</v>
       </c>
       <c r="J16">
-        <v>-2.414</v>
+        <v>-2.102</v>
       </c>
       <c r="K16">
-        <v>0.017</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -8116,19 +8113,19 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="C17" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D17" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="E17" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="F17" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="G17">
         <v>298</v>
@@ -8140,10 +8137,10 @@
         <v>-0.028</v>
       </c>
       <c r="J17">
-        <v>-0.8129999999999999</v>
+        <v>-0.9389999999999999</v>
       </c>
       <c r="K17">
-        <v>0.417</v>
+        <v>0.348</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8151,19 +8148,19 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="C18" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D18" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="E18" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="F18" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="G18">
         <v>298</v>
@@ -8175,10 +8172,10 @@
         <v>-0.026</v>
       </c>
       <c r="J18">
-        <v>-0.727</v>
+        <v>-1.025</v>
       </c>
       <c r="K18">
-        <v>0.468</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8186,19 +8183,19 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="C19" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="D19" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="E19" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="F19" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="G19">
         <v>298</v>
@@ -8210,10 +8207,10 @@
         <v>0.011</v>
       </c>
       <c r="J19">
-        <v>0.324</v>
+        <v>0.388</v>
       </c>
       <c r="K19">
-        <v>0.746</v>
+        <v>0.698</v>
       </c>
     </row>
   </sheetData>
@@ -8286,22 +8283,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="C2" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="D2" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="E2" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F2" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="H2">
         <v>298</v>
@@ -8313,10 +8310,10 @@
         <v>4.414</v>
       </c>
       <c r="K2">
-        <v>1.048</v>
+        <v>1.213</v>
       </c>
       <c r="L2">
-        <v>0.296</v>
+        <v>0.225</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8324,22 +8321,22 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C3" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="D3" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="E3" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F3" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="G3" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="H3">
         <v>298</v>
@@ -8351,10 +8348,10 @@
         <v>-6.571</v>
       </c>
       <c r="K3">
-        <v>-1.439</v>
+        <v>-1.447</v>
       </c>
       <c r="L3">
-        <v>0.151</v>
+        <v>0.148</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8362,22 +8359,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="D4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="E4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="G4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H4">
         <v>298</v>
@@ -8389,7 +8386,7 @@
         <v>-0.105</v>
       </c>
       <c r="K4">
-        <v>-0.022</v>
+        <v>-0.021</v>
       </c>
       <c r="L4">
         <v>0.983</v>
@@ -8400,22 +8397,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C5" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="D5" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="E5" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="F5" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="G5" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H5">
         <v>298</v>
@@ -8427,10 +8424,10 @@
         <v>4.221</v>
       </c>
       <c r="K5">
-        <v>0.768</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="L5">
-        <v>0.443</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8438,22 +8435,22 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C6" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="D6" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="E6" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F6" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="G6" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H6">
         <v>298</v>
@@ -8465,10 +8462,10 @@
         <v>1.359</v>
       </c>
       <c r="K6">
-        <v>0.25</v>
+        <v>0.243</v>
       </c>
       <c r="L6">
-        <v>0.803</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8476,22 +8473,22 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="C7" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="D7" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="E7" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="G7" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H7">
         <v>298</v>
@@ -8503,10 +8500,10 @@
         <v>2.034</v>
       </c>
       <c r="K7">
-        <v>0.387</v>
+        <v>0.409</v>
       </c>
       <c r="L7">
-        <v>0.699</v>
+        <v>0.6830000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8514,22 +8511,22 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="C8" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D8" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="E8" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F8" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G8" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H8">
         <v>298</v>
@@ -8538,13 +8535,13 @@
         <v>0.024</v>
       </c>
       <c r="J8">
-        <v>-1.666</v>
+        <v>-1.651</v>
       </c>
       <c r="K8">
-        <v>-1.06</v>
+        <v>-1.091</v>
       </c>
       <c r="L8">
-        <v>0.29</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8552,22 +8549,22 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="C9" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="E9" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F9" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="G9" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H9">
         <v>298</v>
@@ -8579,10 +8576,10 @@
         <v>3.331</v>
       </c>
       <c r="K9">
-        <v>1.891</v>
+        <v>1.778</v>
       </c>
       <c r="L9">
-        <v>0.06</v>
+        <v>0.075</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8590,22 +8587,22 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C10" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="D10" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="E10" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F10" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="G10" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H10">
         <v>298</v>
@@ -8617,10 +8614,10 @@
         <v>-0.379</v>
       </c>
       <c r="K10">
-        <v>-0.185</v>
+        <v>-0.164</v>
       </c>
       <c r="L10">
-        <v>0.853</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8628,22 +8625,22 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C11" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="D11" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="E11" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F11" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G11" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H11">
         <v>298</v>
@@ -8655,10 +8652,10 @@
         <v>-2.544</v>
       </c>
       <c r="K11">
-        <v>-1.24</v>
+        <v>-1.167</v>
       </c>
       <c r="L11">
-        <v>0.216</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8666,22 +8663,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="C12" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="D12" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="E12" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="F12" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="G12" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H12">
         <v>298</v>
@@ -8693,10 +8690,10 @@
         <v>-1.628</v>
       </c>
       <c r="K12">
-        <v>-0.8149999999999999</v>
+        <v>-0.916</v>
       </c>
       <c r="L12">
-        <v>0.416</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8704,22 +8701,22 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="C13" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="D13" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="E13" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="F13" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G13" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H13">
         <v>298</v>
@@ -8742,22 +8739,22 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C14" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="D14" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="E14" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F14" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="G14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H14">
         <v>298</v>
@@ -8769,10 +8766,10 @@
         <v>-0.004</v>
       </c>
       <c r="K14">
-        <v>-0.108</v>
+        <v>-0.08799999999999999</v>
       </c>
       <c r="L14">
-        <v>0.914</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8780,22 +8777,22 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C15" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D15" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="E15" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F15" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="G15" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H15">
         <v>298</v>
@@ -8807,10 +8804,10 @@
         <v>-0.07199999999999999</v>
       </c>
       <c r="K15">
-        <v>-1.834</v>
+        <v>-2.19</v>
       </c>
       <c r="L15">
-        <v>0.068</v>
+        <v>0.029</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8818,22 +8815,22 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="C16" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="D16" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E16" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F16" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="G16" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H16">
         <v>298</v>
@@ -8845,10 +8842,10 @@
         <v>-0.09</v>
       </c>
       <c r="K16">
-        <v>-2.396</v>
+        <v>-2.246</v>
       </c>
       <c r="L16">
-        <v>0.017</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8856,22 +8853,22 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="C17" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="D17" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="E17" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F17" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="G17" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="H17">
         <v>298</v>
@@ -8883,10 +8880,10 @@
         <v>-0.034</v>
       </c>
       <c r="K17">
-        <v>-0.878</v>
+        <v>-0.91</v>
       </c>
       <c r="L17">
-        <v>0.381</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8894,22 +8891,22 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C18" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="D18" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="E18" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F18" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="G18" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H18">
         <v>298</v>
@@ -8921,10 +8918,10 @@
         <v>-0.001</v>
       </c>
       <c r="K18">
-        <v>-0.016</v>
+        <v>-0.029</v>
       </c>
       <c r="L18">
-        <v>0.987</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8932,22 +8929,22 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="C19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="D19" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="E19" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F19" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G19" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H19">
         <v>298</v>
@@ -8959,10 +8956,10 @@
         <v>0.029</v>
       </c>
       <c r="K19">
-        <v>0.725</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="L19">
-        <v>0.469</v>
+        <v>0.347</v>
       </c>
     </row>
   </sheetData>
@@ -9041,10 +9038,10 @@
         <v>1.945</v>
       </c>
       <c r="H2">
-        <v>0.456</v>
+        <v>0.438</v>
       </c>
       <c r="I2">
-        <v>0.649</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9070,10 +9067,10 @@
         <v>-4.319</v>
       </c>
       <c r="H3">
-        <v>-0.9330000000000001</v>
+        <v>-0.984</v>
       </c>
       <c r="I3">
-        <v>0.352</v>
+        <v>0.325</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9099,10 +9096,10 @@
         <v>-0.553</v>
       </c>
       <c r="H4">
-        <v>-0.112</v>
+        <v>-0.129</v>
       </c>
       <c r="I4">
-        <v>0.911</v>
+        <v>0.897</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9128,10 +9125,10 @@
         <v>2.371</v>
       </c>
       <c r="H5">
-        <v>0.427</v>
+        <v>0.461</v>
       </c>
       <c r="I5">
-        <v>0.67</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9157,10 +9154,10 @@
         <v>5.264</v>
       </c>
       <c r="H6">
-        <v>0.961</v>
+        <v>1.005</v>
       </c>
       <c r="I6">
-        <v>0.338</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9186,10 +9183,10 @@
         <v>-8.544</v>
       </c>
       <c r="H7">
-        <v>-1.617</v>
+        <v>-1.703</v>
       </c>
       <c r="I7">
-        <v>0.107</v>
+        <v>0.089</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9212,13 +9209,13 @@
         <v>0.024</v>
       </c>
       <c r="G8">
-        <v>-0.624</v>
+        <v>-0.535</v>
       </c>
       <c r="H8">
-        <v>-0.392</v>
+        <v>-0.339</v>
       </c>
       <c r="I8">
-        <v>0.695</v>
+        <v>0.735</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9244,10 +9241,10 @@
         <v>2.231</v>
       </c>
       <c r="H9">
-        <v>1.248</v>
+        <v>1.335</v>
       </c>
       <c r="I9">
-        <v>0.213</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9273,10 +9270,10 @@
         <v>0.346</v>
       </c>
       <c r="H10">
-        <v>0.167</v>
+        <v>0.165</v>
       </c>
       <c r="I10">
-        <v>0.867</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9331,10 +9328,10 @@
         <v>-2.974</v>
       </c>
       <c r="H12">
-        <v>-1.477</v>
+        <v>-1.309</v>
       </c>
       <c r="I12">
-        <v>0.141</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9360,10 +9357,10 @@
         <v>3.861</v>
       </c>
       <c r="H13">
-        <v>1.935</v>
+        <v>1.995</v>
       </c>
       <c r="I13">
-        <v>0.054</v>
+        <v>0.046</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9389,10 +9386,10 @@
         <v>-0.035</v>
       </c>
       <c r="H14">
-        <v>-0.863</v>
+        <v>-0.878</v>
       </c>
       <c r="I14">
-        <v>0.389</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9418,10 +9415,10 @@
         <v>-0.019</v>
       </c>
       <c r="H15">
-        <v>-0.473</v>
+        <v>-0.496</v>
       </c>
       <c r="I15">
-        <v>0.637</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9447,10 +9444,10 @@
         <v>-0.02</v>
       </c>
       <c r="H16">
-        <v>-0.526</v>
+        <v>-0.525</v>
       </c>
       <c r="I16">
-        <v>0.599</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9476,10 +9473,10 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.494</v>
+        <v>0.656</v>
       </c>
       <c r="I17">
-        <v>0.622</v>
+        <v>0.512</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9505,10 +9502,10 @@
         <v>-0.012</v>
       </c>
       <c r="H18">
-        <v>-0.309</v>
+        <v>-0.506</v>
       </c>
       <c r="I18">
-        <v>0.758</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9534,10 +9531,10 @@
         <v>-0.025</v>
       </c>
       <c r="H19">
-        <v>-0.615</v>
+        <v>-0.649</v>
       </c>
       <c r="I19">
-        <v>0.539</v>
+        <v>0.516</v>
       </c>
     </row>
   </sheetData>
@@ -9616,10 +9613,10 @@
         <v>3.845</v>
       </c>
       <c r="H2">
-        <v>0.718</v>
+        <v>0.705</v>
       </c>
       <c r="I2">
-        <v>0.474</v>
+        <v>0.481</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9645,10 +9642,10 @@
         <v>-3.303</v>
       </c>
       <c r="H3">
-        <v>-0.5669999999999999</v>
+        <v>-0.602</v>
       </c>
       <c r="I3">
-        <v>0.571</v>
+        <v>0.547</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9674,10 +9671,10 @@
         <v>3.468</v>
       </c>
       <c r="H4">
-        <v>0.5610000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="I4">
-        <v>0.575</v>
+        <v>0.555</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9703,10 +9700,10 @@
         <v>0.457</v>
       </c>
       <c r="H5">
-        <v>0.065</v>
+        <v>0.06</v>
       </c>
       <c r="I5">
-        <v>0.948</v>
+        <v>0.952</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9732,7 +9729,7 @@
         <v>0.515</v>
       </c>
       <c r="H6">
-        <v>0.075</v>
+        <v>0.074</v>
       </c>
       <c r="I6">
         <v>0.9409999999999999</v>
@@ -9761,10 +9758,10 @@
         <v>-13.667</v>
       </c>
       <c r="H7">
-        <v>-2.064</v>
+        <v>-2.338</v>
       </c>
       <c r="I7">
-        <v>0.04</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9787,13 +9784,13 @@
         <v>0.017</v>
       </c>
       <c r="G8">
-        <v>-1.543</v>
+        <v>-1.538</v>
       </c>
       <c r="H8">
-        <v>-0.772</v>
+        <v>-0.797</v>
       </c>
       <c r="I8">
-        <v>0.441</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9819,10 +9816,10 @@
         <v>1.502</v>
       </c>
       <c r="H9">
-        <v>0.667</v>
+        <v>0.702</v>
       </c>
       <c r="I9">
-        <v>0.506</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9848,10 +9845,10 @@
         <v>-2.233</v>
       </c>
       <c r="H10">
-        <v>-0.859</v>
+        <v>-0.887</v>
       </c>
       <c r="I10">
-        <v>0.391</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9877,10 +9874,10 @@
         <v>-0.415</v>
       </c>
       <c r="H11">
-        <v>-0.159</v>
+        <v>-0.145</v>
       </c>
       <c r="I11">
-        <v>0.874</v>
+        <v>0.884</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9906,10 +9903,10 @@
         <v>-1.609</v>
       </c>
       <c r="H12">
-        <v>-0.633</v>
+        <v>-0.556</v>
       </c>
       <c r="I12">
-        <v>0.527</v>
+        <v>0.578</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9935,10 +9932,10 @@
         <v>6.167</v>
       </c>
       <c r="H13">
-        <v>2.469</v>
+        <v>2.892</v>
       </c>
       <c r="I13">
-        <v>0.014</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9964,10 +9961,10 @@
         <v>-0.023</v>
       </c>
       <c r="H14">
-        <v>-0.464</v>
+        <v>-0.524</v>
       </c>
       <c r="I14">
-        <v>0.643</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9993,10 +9990,10 @@
         <v>-0.032</v>
       </c>
       <c r="H15">
-        <v>-0.646</v>
+        <v>-0.749</v>
       </c>
       <c r="I15">
-        <v>0.519</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -10022,10 +10019,10 @@
         <v>-0.017</v>
       </c>
       <c r="H16">
-        <v>-0.355</v>
+        <v>-0.436</v>
       </c>
       <c r="I16">
-        <v>0.723</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -10051,10 +10048,10 @@
         <v>0.02</v>
       </c>
       <c r="H17">
-        <v>0.392</v>
+        <v>0.431</v>
       </c>
       <c r="I17">
-        <v>0.696</v>
+        <v>0.666</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -10080,10 +10077,10 @@
         <v>-0.043</v>
       </c>
       <c r="H18">
-        <v>-0.864</v>
+        <v>-1.22</v>
       </c>
       <c r="I18">
-        <v>0.388</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10109,10 +10106,10 @@
         <v>-0.035</v>
       </c>
       <c r="H19">
-        <v>-0.701</v>
+        <v>-0.697</v>
       </c>
       <c r="I19">
-        <v>0.484</v>
+        <v>0.486</v>
       </c>
     </row>
   </sheetData>
@@ -10198,10 +10195,10 @@
         <v>7.67</v>
       </c>
       <c r="I2">
-        <v>1.28</v>
+        <v>1.249</v>
       </c>
       <c r="J2">
-        <v>0.202</v>
+        <v>0.212</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10230,10 +10227,10 @@
         <v>-7.297</v>
       </c>
       <c r="I3">
-        <v>-1.119</v>
+        <v>-1.428</v>
       </c>
       <c r="J3">
-        <v>0.264</v>
+        <v>0.153</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10262,10 +10259,10 @@
         <v>-0.923</v>
       </c>
       <c r="I4">
-        <v>-0.133</v>
+        <v>-0.147</v>
       </c>
       <c r="J4">
-        <v>0.894</v>
+        <v>0.883</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10294,10 +10291,10 @@
         <v>0.327</v>
       </c>
       <c r="I5">
-        <v>0.042</v>
+        <v>0.045</v>
       </c>
       <c r="J5">
-        <v>0.967</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -10326,10 +10323,10 @@
         <v>-4.577</v>
       </c>
       <c r="I6">
-        <v>-0.592</v>
+        <v>-0.542</v>
       </c>
       <c r="J6">
-        <v>0.555</v>
+        <v>0.588</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10358,10 +10355,10 @@
         <v>-15.253</v>
       </c>
       <c r="I7">
-        <v>-2.054</v>
+        <v>-2.154</v>
       </c>
       <c r="J7">
-        <v>0.041</v>
+        <v>0.031</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10387,13 +10384,13 @@
         <v>0.012</v>
       </c>
       <c r="H8">
-        <v>-4.008</v>
+        <v>-3.992</v>
       </c>
       <c r="I8">
-        <v>-1.798</v>
+        <v>-1.681</v>
       </c>
       <c r="J8">
-        <v>0.073</v>
+        <v>0.093</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10422,10 +10419,10 @@
         <v>3.625</v>
       </c>
       <c r="I9">
-        <v>1.44</v>
+        <v>1.842</v>
       </c>
       <c r="J9">
-        <v>0.151</v>
+        <v>0.066</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10454,10 +10451,10 @@
         <v>0.042</v>
       </c>
       <c r="I10">
-        <v>0.014</v>
+        <v>0.015</v>
       </c>
       <c r="J10">
-        <v>0.989</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10486,10 +10483,10 @@
         <v>-1.116</v>
       </c>
       <c r="I11">
-        <v>-0.381</v>
+        <v>-0.438</v>
       </c>
       <c r="J11">
-        <v>0.704</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10518,10 +10515,10 @@
         <v>-0.183</v>
       </c>
       <c r="I12">
-        <v>-0.064</v>
+        <v>-0.055</v>
       </c>
       <c r="J12">
-        <v>0.949</v>
+        <v>0.956</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10550,10 +10547,10 @@
         <v>6.84</v>
       </c>
       <c r="I13">
-        <v>2.442</v>
+        <v>2.752</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.006</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10582,10 +10579,10 @@
         <v>0.021</v>
       </c>
       <c r="I14">
-        <v>0.367</v>
+        <v>0.394</v>
       </c>
       <c r="J14">
-        <v>0.714</v>
+        <v>0.694</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10614,10 +10611,10 @@
         <v>-0.033</v>
       </c>
       <c r="I15">
-        <v>-0.588</v>
+        <v>-0.622</v>
       </c>
       <c r="J15">
-        <v>0.5570000000000001</v>
+        <v>0.534</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10646,10 +10643,10 @@
         <v>-0.026</v>
       </c>
       <c r="I16">
-        <v>-0.488</v>
+        <v>-0.605</v>
       </c>
       <c r="J16">
-        <v>0.626</v>
+        <v>0.545</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10678,10 +10675,10 @@
         <v>0.037</v>
       </c>
       <c r="I17">
-        <v>0.665</v>
+        <v>0.949</v>
       </c>
       <c r="J17">
-        <v>0.507</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10710,10 +10707,10 @@
         <v>-0.033</v>
       </c>
       <c r="I18">
-        <v>-0.589</v>
+        <v>-0.654</v>
       </c>
       <c r="J18">
-        <v>0.5570000000000001</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10742,10 +10739,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="I19">
-        <v>-1.224</v>
+        <v>-1.413</v>
       </c>
       <c r="J19">
-        <v>0.222</v>
+        <v>0.158</v>
       </c>
     </row>
   </sheetData>
@@ -10824,10 +10821,10 @@
         <v>1.509</v>
       </c>
       <c r="H2">
-        <v>0.495</v>
+        <v>0.513</v>
       </c>
       <c r="I2">
-        <v>0.621</v>
+        <v>0.608</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10853,10 +10850,10 @@
         <v>-3.369</v>
       </c>
       <c r="H3">
-        <v>-1.019</v>
+        <v>-0.908</v>
       </c>
       <c r="I3">
-        <v>0.309</v>
+        <v>0.364</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10882,10 +10879,10 @@
         <v>3.328</v>
       </c>
       <c r="H4">
-        <v>0.948</v>
+        <v>0.977</v>
       </c>
       <c r="I4">
-        <v>0.344</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10911,10 +10908,10 @@
         <v>0.98</v>
       </c>
       <c r="H5">
-        <v>0.246</v>
+        <v>0.22</v>
       </c>
       <c r="I5">
-        <v>0.806</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10940,10 +10937,10 @@
         <v>-0.874</v>
       </c>
       <c r="H6">
-        <v>-0.223</v>
+        <v>-0.206</v>
       </c>
       <c r="I6">
-        <v>0.824</v>
+        <v>0.837</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -10969,10 +10966,10 @@
         <v>-9.161</v>
       </c>
       <c r="H7">
-        <v>-2.442</v>
+        <v>-2.327</v>
       </c>
       <c r="I7">
-        <v>0.015</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10995,13 +10992,13 @@
         <v>0.043</v>
       </c>
       <c r="G8">
-        <v>-0.339</v>
+        <v>-0.256</v>
       </c>
       <c r="H8">
-        <v>-0.298</v>
+        <v>-0.245</v>
       </c>
       <c r="I8">
-        <v>0.766</v>
+        <v>0.806</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11027,10 +11024,10 @@
         <v>2.193</v>
       </c>
       <c r="H9">
-        <v>1.721</v>
+        <v>1.722</v>
       </c>
       <c r="I9">
-        <v>0.08699999999999999</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -11056,10 +11053,10 @@
         <v>-1.127</v>
       </c>
       <c r="H10">
-        <v>-0.762</v>
+        <v>-0.702</v>
       </c>
       <c r="I10">
-        <v>0.447</v>
+        <v>0.483</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11085,10 +11082,10 @@
         <v>-0.201</v>
       </c>
       <c r="H11">
-        <v>-0.135</v>
+        <v>-0.1</v>
       </c>
       <c r="I11">
-        <v>0.893</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11114,10 +11111,10 @@
         <v>0.33</v>
       </c>
       <c r="H12">
-        <v>0.228</v>
+        <v>0.188</v>
       </c>
       <c r="I12">
-        <v>0.82</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11143,10 +11140,10 @@
         <v>4.52</v>
       </c>
       <c r="H13">
-        <v>3.21</v>
+        <v>3.477</v>
       </c>
       <c r="I13">
-        <v>0.002</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11172,10 +11169,10 @@
         <v>0.011</v>
       </c>
       <c r="H14">
-        <v>0.393</v>
+        <v>0.32</v>
       </c>
       <c r="I14">
-        <v>0.695</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11201,10 +11198,10 @@
         <v>-0.033</v>
       </c>
       <c r="H15">
-        <v>-1.148</v>
+        <v>-1.129</v>
       </c>
       <c r="I15">
-        <v>0.252</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11230,10 +11227,10 @@
         <v>-0.017</v>
       </c>
       <c r="H16">
-        <v>-0.628</v>
+        <v>-0.575</v>
       </c>
       <c r="I16">
-        <v>0.531</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11259,10 +11256,10 @@
         <v>-0.001</v>
       </c>
       <c r="H17">
-        <v>-0.023</v>
+        <v>-0.024</v>
       </c>
       <c r="I17">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11288,10 +11285,10 @@
         <v>-0.01</v>
       </c>
       <c r="H18">
-        <v>-0.338</v>
+        <v>-0.477</v>
       </c>
       <c r="I18">
-        <v>0.736</v>
+        <v>0.633</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11317,10 +11314,10 @@
         <v>-0.024</v>
       </c>
       <c r="H19">
-        <v>-0.843</v>
+        <v>-0.9350000000000001</v>
       </c>
       <c r="I19">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -11406,10 +11403,10 @@
         <v>-0.398</v>
       </c>
       <c r="I2">
-        <v>-0.107</v>
+        <v>-0.106</v>
       </c>
       <c r="J2">
-        <v>0.915</v>
+        <v>0.916</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11438,10 +11435,10 @@
         <v>-4.297</v>
       </c>
       <c r="I3">
-        <v>-1.067</v>
+        <v>-1.047</v>
       </c>
       <c r="J3">
-        <v>0.287</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11470,10 +11467,10 @@
         <v>2.925</v>
       </c>
       <c r="I4">
-        <v>0.6840000000000001</v>
+        <v>0.746</v>
       </c>
       <c r="J4">
-        <v>0.495</v>
+        <v>0.456</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11502,10 +11499,10 @@
         <v>4.145</v>
       </c>
       <c r="I5">
-        <v>0.858</v>
+        <v>0.777</v>
       </c>
       <c r="J5">
-        <v>0.392</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11534,10 +11531,10 @@
         <v>3.37</v>
       </c>
       <c r="I6">
-        <v>0.706</v>
+        <v>0.829</v>
       </c>
       <c r="J6">
-        <v>0.481</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11566,10 +11563,10 @@
         <v>-7.579</v>
       </c>
       <c r="I7">
-        <v>-1.648</v>
+        <v>-2.096</v>
       </c>
       <c r="J7">
-        <v>0.101</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11595,13 +11592,13 @@
         <v>0.03</v>
       </c>
       <c r="H8">
-        <v>0.479</v>
+        <v>0.574</v>
       </c>
       <c r="I8">
-        <v>0.346</v>
+        <v>0.399</v>
       </c>
       <c r="J8">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -11630,10 +11627,10 @@
         <v>2.354</v>
       </c>
       <c r="I9">
-        <v>1.515</v>
+        <v>1.362</v>
       </c>
       <c r="J9">
-        <v>0.131</v>
+        <v>0.173</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -11662,10 +11659,10 @@
         <v>-1.23</v>
       </c>
       <c r="I10">
-        <v>-0.6830000000000001</v>
+        <v>-0.614</v>
       </c>
       <c r="J10">
-        <v>0.495</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -11694,10 +11691,10 @@
         <v>-1.359</v>
       </c>
       <c r="I11">
-        <v>-0.752</v>
+        <v>-0.6</v>
       </c>
       <c r="J11">
-        <v>0.453</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -11726,10 +11723,10 @@
         <v>-1.482</v>
       </c>
       <c r="I12">
-        <v>-0.843</v>
+        <v>-0.778</v>
       </c>
       <c r="J12">
-        <v>0.4</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -11758,10 +11755,10 @@
         <v>4.021</v>
       </c>
       <c r="I13">
-        <v>2.323</v>
+        <v>2.862</v>
       </c>
       <c r="J13">
-        <v>0.021</v>
+        <v>0.004</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -11790,10 +11787,10 @@
         <v>-0.016</v>
       </c>
       <c r="I14">
-        <v>-0.461</v>
+        <v>-0.411</v>
       </c>
       <c r="J14">
-        <v>0.645</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -11822,10 +11819,10 @@
         <v>-0.027</v>
       </c>
       <c r="I15">
-        <v>-0.774</v>
+        <v>-1.02</v>
       </c>
       <c r="J15">
-        <v>0.44</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -11854,10 +11851,10 @@
         <v>-0.043</v>
       </c>
       <c r="I16">
-        <v>-1.302</v>
+        <v>-1.177</v>
       </c>
       <c r="J16">
-        <v>0.194</v>
+        <v>0.239</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -11886,10 +11883,10 @@
         <v>-0.008</v>
       </c>
       <c r="I17">
-        <v>-0.242</v>
+        <v>-0.271</v>
       </c>
       <c r="J17">
-        <v>0.8090000000000001</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -11918,10 +11915,10 @@
         <v>-0.016</v>
       </c>
       <c r="I18">
-        <v>-0.474</v>
+        <v>-0.7</v>
       </c>
       <c r="J18">
-        <v>0.636</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -11950,10 +11947,10 @@
         <v>-0.022</v>
       </c>
       <c r="I19">
-        <v>-0.63</v>
+        <v>-0.667</v>
       </c>
       <c r="J19">
-        <v>0.529</v>
+        <v>0.505</v>
       </c>
     </row>
   </sheetData>
@@ -12039,10 +12036,10 @@
         <v>0.584</v>
       </c>
       <c r="I2">
-        <v>0.125</v>
+        <v>0.13</v>
       </c>
       <c r="J2">
-        <v>0.901</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12071,10 +12068,10 @@
         <v>-3.391</v>
       </c>
       <c r="I3">
-        <v>-0.667</v>
+        <v>-0.6840000000000001</v>
       </c>
       <c r="J3">
-        <v>0.505</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12103,10 +12100,10 @@
         <v>7.091</v>
       </c>
       <c r="I4">
-        <v>1.319</v>
+        <v>1.345</v>
       </c>
       <c r="J4">
-        <v>0.188</v>
+        <v>0.178</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12135,10 +12132,10 @@
         <v>3.778</v>
       </c>
       <c r="I5">
-        <v>0.62</v>
+        <v>0.521</v>
       </c>
       <c r="J5">
-        <v>0.536</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12167,10 +12164,10 @@
         <v>-0.41</v>
       </c>
       <c r="I6">
-        <v>-0.068</v>
+        <v>-0.07199999999999999</v>
       </c>
       <c r="J6">
-        <v>0.946</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12199,10 +12196,10 @@
         <v>-12.564</v>
       </c>
       <c r="I7">
-        <v>-2.177</v>
+        <v>-2.148</v>
       </c>
       <c r="J7">
-        <v>0.03</v>
+        <v>0.032</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12228,13 +12225,13 @@
         <v>0.02</v>
       </c>
       <c r="H8">
-        <v>-0.07199999999999999</v>
+        <v>-0.037</v>
       </c>
       <c r="I8">
-        <v>-0.041</v>
+        <v>-0.021</v>
       </c>
       <c r="J8">
-        <v>0.967</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12263,10 +12260,10 @@
         <v>2.131</v>
       </c>
       <c r="I9">
-        <v>1.086</v>
+        <v>1.047</v>
       </c>
       <c r="J9">
-        <v>0.279</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12295,10 +12292,10 @@
         <v>-3.382</v>
       </c>
       <c r="I10">
-        <v>-1.496</v>
+        <v>-1.358</v>
       </c>
       <c r="J10">
-        <v>0.136</v>
+        <v>0.174</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12327,10 +12324,10 @@
         <v>-1.222</v>
       </c>
       <c r="I11">
-        <v>-0.536</v>
+        <v>-0.405</v>
       </c>
       <c r="J11">
-        <v>0.592</v>
+        <v>0.6850000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12391,7 +12388,7 @@
         <v>6.248</v>
       </c>
       <c r="I13">
-        <v>2.88</v>
+        <v>2.901</v>
       </c>
       <c r="J13">
         <v>0.004</v>
@@ -12423,10 +12420,10 @@
         <v>-0.01</v>
       </c>
       <c r="I14">
-        <v>-0.225</v>
+        <v>-0.204</v>
       </c>
       <c r="J14">
-        <v>0.822</v>
+        <v>0.838</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12455,10 +12452,10 @@
         <v>-0.031</v>
       </c>
       <c r="I15">
-        <v>-0.72</v>
+        <v>-1.113</v>
       </c>
       <c r="J15">
-        <v>0.472</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12487,10 +12484,10 @@
         <v>-0.048</v>
       </c>
       <c r="I16">
-        <v>-1.152</v>
+        <v>-1.121</v>
       </c>
       <c r="J16">
-        <v>0.25</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12519,10 +12516,10 @@
         <v>0.018</v>
       </c>
       <c r="I17">
-        <v>0.406</v>
+        <v>0.42</v>
       </c>
       <c r="J17">
-        <v>0.6850000000000001</v>
+        <v>0.675</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12551,10 +12548,10 @@
         <v>-0.023</v>
       </c>
       <c r="I18">
-        <v>-0.533</v>
+        <v>-0.754</v>
       </c>
       <c r="J18">
-        <v>0.595</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12583,10 +12580,10 @@
         <v>-0.006</v>
       </c>
       <c r="I19">
-        <v>-0.136</v>
+        <v>-0.125</v>
       </c>
       <c r="J19">
-        <v>0.892</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -12672,10 +12669,10 @@
         <v>6.01</v>
       </c>
       <c r="I2">
-        <v>1.165</v>
+        <v>1.148</v>
       </c>
       <c r="J2">
-        <v>0.245</v>
+        <v>0.251</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12704,10 +12701,10 @@
         <v>-8.407</v>
       </c>
       <c r="I3">
-        <v>-1.503</v>
+        <v>-1.47</v>
       </c>
       <c r="J3">
-        <v>0.134</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12736,10 +12733,10 @@
         <v>3.57</v>
       </c>
       <c r="I4">
-        <v>0.599</v>
+        <v>0.574</v>
       </c>
       <c r="J4">
-        <v>0.55</v>
+        <v>0.5659999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12768,10 +12765,10 @@
         <v>2.669</v>
       </c>
       <c r="I5">
-        <v>0.396</v>
+        <v>0.411</v>
       </c>
       <c r="J5">
-        <v>0.6919999999999999</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12800,10 +12797,10 @@
         <v>-3.812</v>
       </c>
       <c r="I6">
-        <v>-0.573</v>
+        <v>-0.634</v>
       </c>
       <c r="J6">
-        <v>0.5669999999999999</v>
+        <v>0.526</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12832,10 +12829,10 @@
         <v>-11.018</v>
       </c>
       <c r="I7">
-        <v>-1.721</v>
+        <v>-1.769</v>
       </c>
       <c r="J7">
-        <v>0.08699999999999999</v>
+        <v>0.077</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12861,13 +12858,13 @@
         <v>0.016</v>
       </c>
       <c r="H8">
-        <v>-3.04</v>
+        <v>-3.003</v>
       </c>
       <c r="I8">
-        <v>-1.584</v>
+        <v>-1.505</v>
       </c>
       <c r="J8">
-        <v>0.115</v>
+        <v>0.132</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12896,10 +12893,10 @@
         <v>4.38</v>
       </c>
       <c r="I9">
-        <v>2.031</v>
+        <v>2.002</v>
       </c>
       <c r="J9">
-        <v>0.043</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12928,10 +12925,10 @@
         <v>-1.934</v>
       </c>
       <c r="I10">
-        <v>-0.771</v>
+        <v>-0.699</v>
       </c>
       <c r="J10">
-        <v>0.441</v>
+        <v>0.484</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12960,10 +12957,10 @@
         <v>-1.618</v>
       </c>
       <c r="I11">
-        <v>-0.642</v>
+        <v>-0.643</v>
       </c>
       <c r="J11">
-        <v>0.521</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12992,10 +12989,10 @@
         <v>0.33</v>
       </c>
       <c r="I12">
-        <v>0.135</v>
+        <v>0.153</v>
       </c>
       <c r="J12">
-        <v>0.893</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -13024,10 +13021,10 @@
         <v>5.9</v>
       </c>
       <c r="I13">
-        <v>2.449</v>
+        <v>2.611</v>
       </c>
       <c r="J13">
-        <v>0.015</v>
+        <v>0.008999999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -13056,10 +13053,10 @@
         <v>0.008</v>
       </c>
       <c r="I14">
-        <v>0.168</v>
+        <v>0.153</v>
       </c>
       <c r="J14">
-        <v>0.867</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -13088,10 +13085,10 @@
         <v>-0.043</v>
       </c>
       <c r="I15">
-        <v>-0.904</v>
+        <v>-1.206</v>
       </c>
       <c r="J15">
-        <v>0.367</v>
+        <v>0.228</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -13120,10 +13117,10 @@
         <v>-0.056</v>
       </c>
       <c r="I16">
-        <v>-1.222</v>
+        <v>-1.293</v>
       </c>
       <c r="J16">
-        <v>0.223</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -13152,10 +13149,10 @@
         <v>0.008</v>
       </c>
       <c r="I17">
-        <v>0.166</v>
+        <v>0.184</v>
       </c>
       <c r="J17">
-        <v>0.869</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -13184,10 +13181,10 @@
         <v>-0.007</v>
       </c>
       <c r="I18">
-        <v>-0.143</v>
+        <v>-0.213</v>
       </c>
       <c r="J18">
-        <v>0.887</v>
+        <v>0.832</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -13216,10 +13213,10 @@
         <v>-0.015</v>
       </c>
       <c r="I19">
-        <v>-0.31</v>
+        <v>-0.376</v>
       </c>
       <c r="J19">
-        <v>0.757</v>
+        <v>0.707</v>
       </c>
     </row>
   </sheetData>
@@ -13286,7 +13283,7 @@
         <v>535</v>
       </c>
       <c r="D2" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E2">
         <v>298</v>
@@ -13298,10 +13295,10 @@
         <v>-0.031</v>
       </c>
       <c r="H2">
-        <v>-0.011</v>
+        <v>-0.01</v>
       </c>
       <c r="I2">
-        <v>0.991</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13315,7 +13312,7 @@
         <v>536</v>
       </c>
       <c r="D3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E3">
         <v>298</v>
@@ -13327,10 +13324,10 @@
         <v>-2.582</v>
       </c>
       <c r="H3">
-        <v>-0.825</v>
+        <v>-0.8179999999999999</v>
       </c>
       <c r="I3">
-        <v>0.41</v>
+        <v>0.413</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13344,7 +13341,7 @@
         <v>537</v>
       </c>
       <c r="D4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E4">
         <v>298</v>
@@ -13356,10 +13353,10 @@
         <v>-1.815</v>
       </c>
       <c r="H4">
-        <v>-0.546</v>
+        <v>-0.492</v>
       </c>
       <c r="I4">
-        <v>0.586</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -13373,7 +13370,7 @@
         <v>538</v>
       </c>
       <c r="D5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E5">
         <v>298</v>
@@ -13385,10 +13382,10 @@
         <v>-1.258</v>
       </c>
       <c r="H5">
-        <v>-0.335</v>
+        <v>-0.27</v>
       </c>
       <c r="I5">
-        <v>0.738</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13402,7 +13399,7 @@
         <v>539</v>
       </c>
       <c r="D6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E6">
         <v>298</v>
@@ -13414,10 +13411,10 @@
         <v>-2.87</v>
       </c>
       <c r="H6">
-        <v>-0.774</v>
+        <v>-0.65</v>
       </c>
       <c r="I6">
-        <v>0.44</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13431,7 +13428,7 @@
         <v>540</v>
       </c>
       <c r="D7" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E7">
         <v>298</v>
@@ -13443,10 +13440,10 @@
         <v>-4.828</v>
       </c>
       <c r="H7">
-        <v>-1.349</v>
+        <v>-1.176</v>
       </c>
       <c r="I7">
-        <v>0.179</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13460,7 +13457,7 @@
         <v>541</v>
       </c>
       <c r="D8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E8">
         <v>298</v>
@@ -13469,13 +13466,13 @@
         <v>0.048</v>
       </c>
       <c r="G8">
-        <v>0.134</v>
+        <v>0.2</v>
       </c>
       <c r="H8">
-        <v>0.124</v>
+        <v>0.202</v>
       </c>
       <c r="I8">
-        <v>0.901</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13486,10 +13483,10 @@
         <v>524</v>
       </c>
       <c r="C9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E9">
         <v>298</v>
@@ -13501,10 +13498,10 @@
         <v>1.556</v>
       </c>
       <c r="H9">
-        <v>1.287</v>
+        <v>1.15</v>
       </c>
       <c r="I9">
-        <v>0.199</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13515,10 +13512,10 @@
         <v>525</v>
       </c>
       <c r="C10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E10">
         <v>298</v>
@@ -13530,10 +13527,10 @@
         <v>0.799</v>
       </c>
       <c r="H10">
-        <v>0.571</v>
+        <v>0.452</v>
       </c>
       <c r="I10">
-        <v>0.569</v>
+        <v>0.651</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13544,10 +13541,10 @@
         <v>526</v>
       </c>
       <c r="C11" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E11">
         <v>298</v>
@@ -13559,10 +13556,10 @@
         <v>0.61</v>
       </c>
       <c r="H11">
-        <v>0.434</v>
+        <v>0.305</v>
       </c>
       <c r="I11">
-        <v>0.665</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13573,10 +13570,10 @@
         <v>527</v>
       </c>
       <c r="C12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D12" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E12">
         <v>298</v>
@@ -13588,10 +13585,10 @@
         <v>0.787</v>
       </c>
       <c r="H12">
-        <v>0.576</v>
+        <v>0.43</v>
       </c>
       <c r="I12">
-        <v>0.5649999999999999</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13602,10 +13599,10 @@
         <v>528</v>
       </c>
       <c r="C13" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D13" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E13">
         <v>298</v>
@@ -13617,10 +13614,10 @@
         <v>2.522</v>
       </c>
       <c r="H13">
-        <v>1.868</v>
+        <v>1.629</v>
       </c>
       <c r="I13">
-        <v>0.063</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13631,10 +13628,10 @@
         <v>529</v>
       </c>
       <c r="C14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E14">
         <v>298</v>
@@ -13646,10 +13643,10 @@
         <v>0.005</v>
       </c>
       <c r="H14">
-        <v>0.179</v>
+        <v>0.168</v>
       </c>
       <c r="I14">
-        <v>0.858</v>
+        <v>0.867</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13660,10 +13657,10 @@
         <v>530</v>
       </c>
       <c r="C15" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D15" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E15">
         <v>298</v>
@@ -13675,10 +13672,10 @@
         <v>-0.035</v>
       </c>
       <c r="H15">
-        <v>-1.308</v>
+        <v>-1.422</v>
       </c>
       <c r="I15">
-        <v>0.192</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13689,10 +13686,10 @@
         <v>531</v>
       </c>
       <c r="C16" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D16" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E16">
         <v>298</v>
@@ -13704,10 +13701,10 @@
         <v>-0.021</v>
       </c>
       <c r="H16">
-        <v>-0.8110000000000001</v>
+        <v>-0.728</v>
       </c>
       <c r="I16">
-        <v>0.418</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13718,10 +13715,10 @@
         <v>532</v>
       </c>
       <c r="C17" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D17" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E17">
         <v>298</v>
@@ -13733,10 +13730,10 @@
         <v>-0.004</v>
       </c>
       <c r="H17">
-        <v>-0.161</v>
+        <v>-0.168</v>
       </c>
       <c r="I17">
-        <v>0.872</v>
+        <v>0.866</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13747,10 +13744,10 @@
         <v>533</v>
       </c>
       <c r="C18" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D18" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E18">
         <v>298</v>
@@ -13762,10 +13759,10 @@
         <v>-0.042</v>
       </c>
       <c r="H18">
-        <v>-1.554</v>
+        <v>-1.721</v>
       </c>
       <c r="I18">
-        <v>0.122</v>
+        <v>0.08500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13776,10 +13773,10 @@
         <v>534</v>
       </c>
       <c r="C19" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D19" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E19">
         <v>298</v>
@@ -13791,10 +13788,10 @@
         <v>-0.037</v>
       </c>
       <c r="H19">
-        <v>-1.359</v>
+        <v>-1.503</v>
       </c>
       <c r="I19">
-        <v>0.175</v>
+        <v>0.133</v>
       </c>
     </row>
   </sheetData>
